--- a/SourceCode/2023/Sep2023/Basics/Saradha/Task21/City.xlsx
+++ b/SourceCode/2023/Sep2023/Basics/Saradha/Task21/City.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>City</x:t>
   </x:si>
@@ -37,34 +37,40 @@
     <x:t>Chennai</x:t>
   </x:si>
   <x:si>
-    <x:t>34</x:t>
+    <x:t>26</x:t>
   </x:si>
   <x:si>
     <x:t>Mumbai</x:t>
   </x:si>
   <x:si>
-    <x:t>27</x:t>
+    <x:t>25</x:t>
   </x:si>
   <x:si>
     <x:t>Pune</x:t>
   </x:si>
   <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bangalore</x:t>
   </x:si>
   <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kolkatta</x:t>
   </x:si>
   <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hydrabad</x:t>
   </x:si>
   <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
     <x:t>Delhi</x:t>
   </x:si>
   <x:si>
-    <x:t>31</x:t>
+    <x:t>9</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -431,15 +437,15 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -447,23 +453,23 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
